--- a/AP40_TestData_Manage Invoice Holds_21C.xlsx
+++ b/AP40_TestData_Manage Invoice Holds_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AE892-7F21-4B8D-BE50-A951FBF12790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA3C08B-92F3-4BCF-A551-5BCD35B75C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>UserName</t>
   </si>
@@ -795,43 +795,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AD2:AF2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="16" customWidth="1"/>
-    <col min="2" max="7" width="8.7265625" style="16"/>
-    <col min="8" max="8" width="16.81640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.36328125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.7265625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.90625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.77734375" style="16" customWidth="1"/>
+    <col min="2" max="7" width="8.77734375" style="16"/>
+    <col min="8" max="8" width="16.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.77734375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.88671875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="15" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.7265625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.77734375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="16" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.7265625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.7265625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.77734375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.77734375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="20" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.08984375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.08984375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.08984375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="8.08984375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="9.36328125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="34.6328125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.7265625" style="16" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.08984375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="19.109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="8.109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.33203125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="34.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="11.109375" style="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="27" max="27" width="22" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="26.7265625" style="16" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="31.6328125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="26.90625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="9.26953125" style="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="38" width="26.7265625" style="16" customWidth="1" collapsed="1"/>
-    <col min="39" max="16384" width="8.7265625" style="16"/>
+    <col min="28" max="29" width="26.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="31.6640625" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="26.88671875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.21875" style="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="38" width="26.77734375" style="16" customWidth="1" collapsed="1"/>
+    <col min="39" max="16384" width="8.77734375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>48</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="AK1" s="2"/>
       <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>5</v>
       </c>
@@ -1019,15 +1019,9 @@
         <v>45</v>
       </c>
       <c r="AC2" s="17"/>
-      <c r="AD2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="8"/>
       <c r="AG2" s="17"/>
       <c r="AH2" s="17"/>
       <c r="AI2" s="17"/>
@@ -1037,12 +1031,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AD2" r:id="rId1" xr:uid="{AE3E82DE-9124-49E0-8A1C-8991C4F312AA}"/>
-    <hyperlink ref="J4" r:id="rId2" tooltip="Help" display="https://edrx.fa.us2.oraclecloud.com/fscmUI/faces/FuseWelcome?_adf.ctrl-state=ni8qpdhlz_5&amp;fnd=%3B%3B%3B%3Bfalse%3B256%3B%3B%3B&amp;_afrLoop=2074641711905276" xr:uid="{88B1896C-2D3B-4F6C-9FF3-612F19DB56B5}"/>
+    <hyperlink ref="J4" r:id="rId1" tooltip="Help" display="https://edrx.fa.us2.oraclecloud.com/fscmUI/faces/FuseWelcome?_adf.ctrl-state=ni8qpdhlz_5&amp;fnd=%3B%3B%3B%3Bfalse%3B256%3B%3B%3B&amp;_afrLoop=2074641711905276" xr:uid="{88B1896C-2D3B-4F6C-9FF3-612F19DB56B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1052,18 +1045,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -1081,9 +1074,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1154,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -1239,12 +1232,12 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>44</v>
       </c>
